--- a/nba_predictor_results.xlsx
+++ b/nba_predictor_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayl\Projects\nba_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595342C0-0E88-41EA-84FC-178A8D0C7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB2723A-3FBC-4753-8C44-184370A823E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
   </bookViews>
   <sheets>
     <sheet name="nba_predictor_results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -225,12 +225,18 @@
   </si>
   <si>
     <t>Over/Under, L10 Games</t>
+  </si>
+  <si>
+    <t>Timberwolves ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -291,6 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A559E30-137E-4836-8835-F7B14D3C49F3}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +643,7 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="7" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
@@ -735,7 +742,7 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>227.5</v>
       </c>
       <c r="E3" t="s">
@@ -747,11 +754,11 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(F:F)</f>
-        <v>2.7272727272727275</v>
+        <v>3.6363636363636367</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>COUNTIF(E:E,"W") &amp;"-" &amp;COUNTIF(E:E,"L")</f>
-        <v>14-10</v>
+        <v>15-10</v>
       </c>
       <c r="J3" s="1">
         <v>45617</v>
@@ -777,11 +784,11 @@
       </c>
       <c r="Q3" s="5">
         <f>SUM(P:P)</f>
-        <v>1.2123905723905719</v>
+        <v>1.1214814814814811</v>
       </c>
       <c r="R3" s="4" t="str">
         <f>COUNTIF(O:O,"W") &amp;"-" &amp;COUNTIF(O:O,"L")</f>
-        <v>14-15</v>
+        <v>15-16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -794,7 +801,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>227</v>
       </c>
       <c r="E4" t="s">
@@ -824,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P31" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
+        <f t="shared" ref="P4:P33" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
         <v>2.25</v>
       </c>
     </row>
@@ -838,14 +845,14 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>233.5</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F26" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
+        <f t="shared" ref="F5:F27" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="G5" s="2"/>
@@ -882,7 +889,7 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>236.5</v>
       </c>
       <c r="E6" t="s">
@@ -926,7 +933,7 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>235</v>
       </c>
       <c r="E7" t="s">
@@ -970,7 +977,7 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>227</v>
       </c>
       <c r="E8" t="s">
@@ -1014,7 +1021,7 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>237.5</v>
       </c>
       <c r="E9" t="s">
@@ -1058,7 +1065,7 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>237</v>
       </c>
       <c r="E10" t="s">
@@ -1102,7 +1109,7 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>243</v>
       </c>
       <c r="E11" t="s">
@@ -1146,7 +1153,7 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>235</v>
       </c>
       <c r="E12" t="s">
@@ -1190,7 +1197,7 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>241</v>
       </c>
       <c r="E13" t="s">
@@ -1234,7 +1241,7 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>231.5</v>
       </c>
       <c r="E14" t="s">
@@ -1278,7 +1285,7 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>224</v>
       </c>
       <c r="E15" t="s">
@@ -1322,7 +1329,7 @@
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>240.5</v>
       </c>
       <c r="E16" t="s">
@@ -1366,7 +1373,7 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>233</v>
       </c>
       <c r="E17" t="s">
@@ -1396,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="P17" s="2">
-        <f>IF(O17="L",-1,IF(N17&lt;0,1/(-N17/100),1*(N17/100)))</f>
+        <f t="shared" ref="P17:P25" si="2">IF(O17="L",-1,IF(N17&lt;0,1/(-N17/100),1*(N17/100)))</f>
         <v>1.36</v>
       </c>
     </row>
@@ -1410,7 +1417,7 @@
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>234.5</v>
       </c>
       <c r="E18" t="s">
@@ -1440,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="P18" s="2">
-        <f>IF(O18="L",-1,IF(N18&lt;0,1/(-N18/100),1*(N18/100)))</f>
+        <f t="shared" si="2"/>
         <v>0.7407407407407407</v>
       </c>
     </row>
@@ -1454,7 +1461,7 @@
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>234</v>
       </c>
       <c r="E19" t="s">
@@ -1484,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="2">
-        <f>IF(O19="L",-1,IF(N19&lt;0,1/(-N19/100),1*(N19/100)))</f>
+        <f t="shared" si="2"/>
         <v>0.60606060606060608</v>
       </c>
     </row>
@@ -1498,7 +1505,7 @@
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>244</v>
       </c>
       <c r="E20" t="s">
@@ -1528,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="P20" s="2">
-        <f>IF(O20="L",-1,IF(N20&lt;0,1/(-N20/100),1*(N20/100)))</f>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
     </row>
@@ -1542,7 +1549,7 @@
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>237</v>
       </c>
       <c r="E21" t="s">
@@ -1572,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="P21" s="2">
-        <f>IF(O21="L",-1,IF(N21&lt;0,1/(-N21/100),1*(N21/100)))</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
@@ -1586,7 +1593,7 @@
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>227.5</v>
       </c>
       <c r="E22" t="s">
@@ -1616,7 +1623,7 @@
         <v>14</v>
       </c>
       <c r="P22" s="2">
-        <f>IF(O22="L",-1,IF(N22&lt;0,1/(-N22/100),1*(N22/100)))</f>
+        <f t="shared" si="2"/>
         <v>0.7407407407407407</v>
       </c>
     </row>
@@ -1630,7 +1637,7 @@
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>225.5</v>
       </c>
       <c r="E23" t="s">
@@ -1660,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="P23" s="2">
-        <f>IF(O23="L",-1,IF(N23&lt;0,1/(-N23/100),1*(N23/100)))</f>
+        <f t="shared" si="2"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
@@ -1674,7 +1681,7 @@
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>236</v>
       </c>
       <c r="E24" t="s">
@@ -1704,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="P24" s="2">
-        <f>IF(O24="L",-1,IF(N24&lt;0,1/(-N24/100),1*(N24/100)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1718,7 +1725,7 @@
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>233.5</v>
       </c>
       <c r="E25" t="s">
@@ -1748,7 +1755,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="2">
-        <f>IF(O25="L",-1,IF(N25&lt;0,1/(-N25/100),1*(N25/100)))</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
@@ -1762,7 +1769,7 @@
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>232.5</v>
       </c>
       <c r="E26" t="s">
@@ -1797,6 +1804,25 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="7">
+        <v>248.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
       <c r="J27" s="1">
         <v>45629</v>
       </c>
@@ -1914,6 +1940,54 @@
       <c r="P31" s="2">
         <f t="shared" si="0"/>
         <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J32" s="1">
+        <v>45632</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>130</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J33" s="1">
+        <v>45632</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33">
+        <v>-110</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
       </c>
     </row>
   </sheetData>

--- a/nba_predictor_results.xlsx
+++ b/nba_predictor_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayl\Projects\nba_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB2723A-3FBC-4753-8C44-184370A823E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA05CC6-4D5B-4491-B7D7-045D72ACB90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
   </bookViews>
   <sheets>
     <sheet name="nba_predictor_results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -224,10 +224,10 @@
     <t>4 Factor Moneyline, L5 &amp; L3 Games</t>
   </si>
   <si>
-    <t>Over/Under, L10 Games</t>
-  </si>
-  <si>
     <t>Timberwolves ML</t>
+  </si>
+  <si>
+    <t>Overs, L10 Games</t>
   </si>
 </sst>
 </file>
@@ -294,10 +294,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +635,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,41 +643,41 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="3"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" style="2" customWidth="1"/>
     <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
@@ -742,7 +742,7 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>227.5</v>
       </c>
       <c r="E3" t="s">
@@ -754,11 +754,11 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(F:F)</f>
-        <v>3.6363636363636367</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>COUNTIF(E:E,"W") &amp;"-" &amp;COUNTIF(E:E,"L")</f>
-        <v>15-10</v>
+        <v>17-10</v>
       </c>
       <c r="J3" s="1">
         <v>45617</v>
@@ -801,7 +801,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>227</v>
       </c>
       <c r="E4" t="s">
@@ -845,14 +845,14 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>233.5</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F27" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
+        <f t="shared" ref="F5:F29" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="G5" s="2"/>
@@ -889,7 +889,7 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>236.5</v>
       </c>
       <c r="E6" t="s">
@@ -933,7 +933,7 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>235</v>
       </c>
       <c r="E7" t="s">
@@ -977,7 +977,7 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>227</v>
       </c>
       <c r="E8" t="s">
@@ -1021,7 +1021,7 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>237.5</v>
       </c>
       <c r="E9" t="s">
@@ -1065,7 +1065,7 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>237</v>
       </c>
       <c r="E10" t="s">
@@ -1109,7 +1109,7 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>243</v>
       </c>
       <c r="E11" t="s">
@@ -1153,7 +1153,7 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>235</v>
       </c>
       <c r="E12" t="s">
@@ -1197,7 +1197,7 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>241</v>
       </c>
       <c r="E13" t="s">
@@ -1241,7 +1241,7 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>231.5</v>
       </c>
       <c r="E14" t="s">
@@ -1285,7 +1285,7 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>224</v>
       </c>
       <c r="E15" t="s">
@@ -1329,7 +1329,7 @@
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>240.5</v>
       </c>
       <c r="E16" t="s">
@@ -1373,7 +1373,7 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>233</v>
       </c>
       <c r="E17" t="s">
@@ -1417,7 +1417,7 @@
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>234.5</v>
       </c>
       <c r="E18" t="s">
@@ -1461,7 +1461,7 @@
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>234</v>
       </c>
       <c r="E19" t="s">
@@ -1505,7 +1505,7 @@
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>244</v>
       </c>
       <c r="E20" t="s">
@@ -1549,7 +1549,7 @@
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>237</v>
       </c>
       <c r="E21" t="s">
@@ -1593,7 +1593,7 @@
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>227.5</v>
       </c>
       <c r="E22" t="s">
@@ -1637,7 +1637,7 @@
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>225.5</v>
       </c>
       <c r="E23" t="s">
@@ -1681,7 +1681,7 @@
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>236</v>
       </c>
       <c r="E24" t="s">
@@ -1725,7 +1725,7 @@
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>233.5</v>
       </c>
       <c r="E25" t="s">
@@ -1769,7 +1769,7 @@
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>232.5</v>
       </c>
       <c r="E26" t="s">
@@ -1813,7 +1813,7 @@
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>248.5</v>
       </c>
       <c r="E27" t="s">
@@ -1847,6 +1847,25 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6">
+        <v>233.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
       <c r="J28" s="1">
         <v>45629</v>
       </c>
@@ -1871,6 +1890,25 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="6">
+        <v>240</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
       <c r="J29" s="1">
         <v>45629</v>
       </c>
@@ -1977,7 +2015,7 @@
         <v>27</v>
       </c>
       <c r="M33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N33">
         <v>-110</v>

--- a/nba_predictor_results.xlsx
+++ b/nba_predictor_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayl\Projects\nba_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA05CC6-4D5B-4491-B7D7-045D72ACB90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D18F9-9F88-4E9C-8A7A-A005E509B368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Overs, L10 Games</t>
+  </si>
+  <si>
+    <t>Warriors +2.5</t>
   </si>
 </sst>
 </file>
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A559E30-137E-4836-8835-F7B14D3C49F3}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,11 +757,11 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(F:F)</f>
-        <v>5.454545454545455</v>
+        <v>4.454545454545455</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>COUNTIF(E:E,"W") &amp;"-" &amp;COUNTIF(E:E,"L")</f>
-        <v>17-10</v>
+        <v>17-11</v>
       </c>
       <c r="J3" s="1">
         <v>45617</v>
@@ -784,11 +787,11 @@
       </c>
       <c r="Q3" s="5">
         <f>SUM(P:P)</f>
-        <v>1.1214814814814811</v>
+        <v>2.0305723905723903</v>
       </c>
       <c r="R3" s="4" t="str">
         <f>COUNTIF(O:O,"W") &amp;"-" &amp;COUNTIF(O:O,"L")</f>
-        <v>15-16</v>
+        <v>16-16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -831,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P33" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
+        <f t="shared" ref="P4:P34" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
         <v>2.25</v>
       </c>
     </row>
@@ -852,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F29" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
+        <f t="shared" ref="F5:F30" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="G5" s="2"/>
@@ -1933,6 +1936,25 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6">
+        <v>237.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
       <c r="J30" s="1">
         <v>45631</v>
       </c>
@@ -2024,6 +2046,30 @@
         <v>14</v>
       </c>
       <c r="P33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="34" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J34" s="1">
+        <v>45637</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>64</v>
+      </c>
+      <c r="N34">
+        <v>-110</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34" s="2">
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>

--- a/nba_predictor_results.xlsx
+++ b/nba_predictor_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayl\Projects\nba_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D18F9-9F88-4E9C-8A7A-A005E509B368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8996BDA6-8591-473A-9287-D822AE69813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Warriors +2.5</t>
+  </si>
+  <si>
+    <t>Trail Blazers</t>
   </si>
 </sst>
 </file>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A559E30-137E-4836-8835-F7B14D3C49F3}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,11 +760,11 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(F:F)</f>
-        <v>4.454545454545455</v>
+        <v>4.3636363636363642</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>COUNTIF(E:E,"W") &amp;"-" &amp;COUNTIF(E:E,"L")</f>
-        <v>17-11</v>
+        <v>18-12</v>
       </c>
       <c r="J3" s="1">
         <v>45617</v>
@@ -787,11 +790,11 @@
       </c>
       <c r="Q3" s="5">
         <f>SUM(P:P)</f>
-        <v>2.0305723905723903</v>
+        <v>2.6555723905723903</v>
       </c>
       <c r="R3" s="4" t="str">
         <f>COUNTIF(O:O,"W") &amp;"-" &amp;COUNTIF(O:O,"L")</f>
-        <v>16-16</v>
+        <v>17-16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -834,7 +837,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P34" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
+        <f t="shared" ref="P4:P35" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
         <v>2.25</v>
       </c>
     </row>
@@ -855,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F30" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
+        <f t="shared" ref="F5:F32" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="G5" s="2"/>
@@ -1979,6 +1982,25 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="6">
+        <v>232.5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
       <c r="J31" s="1">
         <v>45631</v>
       </c>
@@ -2003,6 +2025,25 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6">
+        <v>228.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
       <c r="J32" s="1">
         <v>45632</v>
       </c>
@@ -2072,6 +2113,30 @@
       <c r="P34" s="2">
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="35" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J35" s="1">
+        <v>45639</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35">
+        <v>-160</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>

--- a/nba_predictor_results.xlsx
+++ b/nba_predictor_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayl\Projects\nba_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8996BDA6-8591-473A-9287-D822AE69813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF7F009-D1F8-4D39-BD4E-B13C5F18CCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
   </bookViews>
   <sheets>
     <sheet name="nba_predictor_results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -641,7 +641,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,11 +760,11 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(F:F)</f>
-        <v>4.3636363636363642</v>
+        <v>3.3636363636363642</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>COUNTIF(E:E,"W") &amp;"-" &amp;COUNTIF(E:E,"L")</f>
-        <v>18-12</v>
+        <v>18-13</v>
       </c>
       <c r="J3" s="1">
         <v>45617</v>
@@ -858,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F32" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
+        <f t="shared" ref="F5:F33" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="G5" s="2"/>
@@ -2067,7 +2067,26 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="6">
+        <v>232.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
       <c r="J33" s="1">
         <v>45632</v>
       </c>
@@ -2091,7 +2110,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="34" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J34" s="1">
         <v>45637</v>
       </c>
@@ -2115,7 +2134,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="35" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J35" s="1">
         <v>45639</v>
       </c>

--- a/nba_predictor_results.xlsx
+++ b/nba_predictor_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayl\Projects\nba_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF7F009-D1F8-4D39-BD4E-B13C5F18CCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DCD264-1C09-4EC8-9EB6-88230620B4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
   </bookViews>
   <sheets>
     <sheet name="nba_predictor_results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -638,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A559E30-137E-4836-8835-F7B14D3C49F3}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,11 +760,11 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(F:F)</f>
-        <v>3.3636363636363642</v>
+        <v>2.3636363636363642</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>COUNTIF(E:E,"W") &amp;"-" &amp;COUNTIF(E:E,"L")</f>
-        <v>18-13</v>
+        <v>18-14</v>
       </c>
       <c r="J3" s="1">
         <v>45617</v>
@@ -790,11 +790,11 @@
       </c>
       <c r="Q3" s="5">
         <f>SUM(P:P)</f>
-        <v>2.6555723905723903</v>
+        <v>3.3452275629861834</v>
       </c>
       <c r="R3" s="4" t="str">
         <f>COUNTIF(O:O,"W") &amp;"-" &amp;COUNTIF(O:O,"L")</f>
-        <v>17-16</v>
+        <v>18-16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P35" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
+        <f t="shared" ref="P4:P36" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
         <v>2.25</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F33" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
+        <f t="shared" ref="F5:F34" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="G5" s="2"/>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>26</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>17</v>
@@ -2111,6 +2111,25 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6">
+        <v>231</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
       <c r="J34" s="1">
         <v>45637</v>
       </c>
@@ -2156,6 +2175,30 @@
       <c r="P35" s="2">
         <f t="shared" si="0"/>
         <v>0.625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J36" s="1">
+        <v>45640</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36">
+        <v>-145</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68965517241379315</v>
       </c>
     </row>
   </sheetData>

--- a/nba_predictor_results.xlsx
+++ b/nba_predictor_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayl\Projects\nba_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DCD264-1C09-4EC8-9EB6-88230620B4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862AE1B5-B02F-405E-A2F6-2C07FE8D3825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Trail Blazers</t>
+  </si>
+  <si>
+    <t>Kings ML</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A559E30-137E-4836-8835-F7B14D3C49F3}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,11 +793,11 @@
       </c>
       <c r="Q3" s="5">
         <f>SUM(P:P)</f>
-        <v>3.3452275629861834</v>
+        <v>2.3452275629861834</v>
       </c>
       <c r="R3" s="4" t="str">
         <f>COUNTIF(O:O,"W") &amp;"-" &amp;COUNTIF(O:O,"L")</f>
-        <v>18-16</v>
+        <v>18-17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -837,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P36" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
+        <f t="shared" ref="P4:P37" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
         <v>2.25</v>
       </c>
     </row>
@@ -2199,6 +2202,30 @@
       <c r="P36" s="2">
         <f t="shared" si="0"/>
         <v>0.68965517241379315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J37" s="1">
+        <v>45641</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37">
+        <v>-125</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/nba_predictor_results.xlsx
+++ b/nba_predictor_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayl\Projects\nba_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862AE1B5-B02F-405E-A2F6-2C07FE8D3825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62245028-BA03-4B92-8657-7572EB0C7562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7CC4E96F-BD3B-46E8-AC91-3EE34230F958}"/>
   </bookViews>
   <sheets>
     <sheet name="nba_predictor_results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>Kings ML</t>
+  </si>
+  <si>
+    <t>Lakers +4</t>
+  </si>
+  <si>
+    <t>Jazz ML</t>
+  </si>
+  <si>
+    <t>Clippers +3.5</t>
   </si>
 </sst>
 </file>
@@ -641,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A559E30-137E-4836-8835-F7B14D3C49F3}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,11 +772,11 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(F:F)</f>
-        <v>2.3636363636363642</v>
+        <v>2.2727272727272734</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>COUNTIF(E:E,"W") &amp;"-" &amp;COUNTIF(E:E,"L")</f>
-        <v>18-14</v>
+        <v>19-15</v>
       </c>
       <c r="J3" s="1">
         <v>45617</v>
@@ -793,11 +802,11 @@
       </c>
       <c r="Q3" s="5">
         <f>SUM(P:P)</f>
-        <v>2.3452275629861834</v>
+        <v>1.3543184720770927</v>
       </c>
       <c r="R3" s="4" t="str">
         <f>COUNTIF(O:O,"W") &amp;"-" &amp;COUNTIF(O:O,"L")</f>
-        <v>18-17</v>
+        <v>20-20</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -840,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P37" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
+        <f t="shared" ref="P4:P42" si="0">IF(O4="L",-1,IF(N4&lt;0,1/(-N4/100),1*(N4/100)))</f>
         <v>2.25</v>
       </c>
     </row>
@@ -861,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F34" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
+        <f t="shared" ref="F5:F36" si="1">IF(E5="L",-1,IF(E5="W",1/1.1,0))</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="G5" s="2"/>
@@ -2157,6 +2166,25 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="6">
+        <v>223.5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
       <c r="J35" s="1">
         <v>45639</v>
       </c>
@@ -2181,6 +2209,25 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="6">
+        <v>225</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
       <c r="J36" s="1">
         <v>45640</v>
       </c>
@@ -2227,6 +2274,129 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J38" s="1">
+        <v>45647</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N38">
+        <v>-110</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J39" s="1">
+        <v>45647</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39">
+        <v>120</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J40" s="1">
+        <v>45647</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N40">
+        <v>110</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J41" s="1">
+        <v>45647</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41">
+        <v>-160</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J42" s="1">
+        <v>45647</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" t="s">
+        <v>69</v>
+      </c>
+      <c r="N42">
+        <v>-110</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
